--- a/simulation_data/iterative_algorithm/i_error_level_6_percent_water_80.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_6_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>91.00796281924524</v>
+        <v>89.99367660576327</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2671531206187</v>
+        <v>9.63007190842462</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>86.94186344942564</v>
+        <v>87.20641918963027</v>
       </c>
       <c r="D3" t="n">
-        <v>11.05071390407329</v>
+        <v>10.0634691523792</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.69357018914599</v>
+        <v>86.61747259609288</v>
       </c>
       <c r="D4" t="n">
-        <v>9.790322355682855</v>
+        <v>9.731090021967093</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.14226468270219</v>
+        <v>87.59701272932581</v>
       </c>
       <c r="D5" t="n">
-        <v>9.451004470255773</v>
+        <v>8.26671729876969</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.20730617585838</v>
+        <v>87.44544164944482</v>
       </c>
       <c r="D6" t="n">
-        <v>11.6325925848163</v>
+        <v>9.217114783947302</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.99196818855989</v>
+        <v>83.94454775111063</v>
       </c>
       <c r="D7" t="n">
-        <v>10.64592172551212</v>
+        <v>9.214495790599267</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.15928041417297</v>
+        <v>85.38202435329049</v>
       </c>
       <c r="D8" t="n">
-        <v>9.863093908150148</v>
+        <v>9.099872718710246</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.24372043347466</v>
+        <v>82.40111959251247</v>
       </c>
       <c r="D9" t="n">
-        <v>11.52348795157795</v>
+        <v>9.912474036342338</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.00297701114206</v>
+        <v>81.02319977470086</v>
       </c>
       <c r="D10" t="n">
-        <v>11.79354590816932</v>
+        <v>10.78721984771717</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.20317523795053</v>
+        <v>79.97404089664833</v>
       </c>
       <c r="D11" t="n">
-        <v>9.650056423209167</v>
+        <v>9.939833528927199</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>77.69661546316939</v>
+        <v>81.23977838515896</v>
       </c>
       <c r="D12" t="n">
-        <v>10.71518251314899</v>
+        <v>8.835754708502987</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.43763406027581</v>
+        <v>79.89308718119572</v>
       </c>
       <c r="D13" t="n">
-        <v>13.34450716215397</v>
+        <v>11.10258857208484</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.65545201437048</v>
+        <v>77.81377342020318</v>
       </c>
       <c r="D14" t="n">
-        <v>11.24876318745337</v>
+        <v>9.681529869023974</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.09832745007571</v>
+        <v>77.87064687036079</v>
       </c>
       <c r="D15" t="n">
-        <v>11.0963433225878</v>
+        <v>11.00043165335208</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.3687917518721</v>
+        <v>76.51229142648543</v>
       </c>
       <c r="D16" t="n">
-        <v>11.31499137174717</v>
+        <v>10.43571958179484</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.62241840788688</v>
+        <v>75.58582604540031</v>
       </c>
       <c r="D17" t="n">
-        <v>11.18011749618214</v>
+        <v>9.44804522241845</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.88178492530545</v>
+        <v>72.96938124639446</v>
       </c>
       <c r="D18" t="n">
-        <v>11.82035401320526</v>
+        <v>10.07569129949739</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.55156752911523</v>
+        <v>72.35614985567477</v>
       </c>
       <c r="D19" t="n">
-        <v>10.45214109572817</v>
+        <v>10.21679820168569</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8260446659402</v>
+        <v>73.12233929691142</v>
       </c>
       <c r="D20" t="n">
-        <v>10.26738617941205</v>
+        <v>10.56848708614378</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.55271598284391</v>
+        <v>72.44314017098269</v>
       </c>
       <c r="D21" t="n">
-        <v>10.05740253437017</v>
+        <v>11.54260868887128</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.37509643280589</v>
+        <v>71.29116109743289</v>
       </c>
       <c r="D22" t="n">
-        <v>11.6986718329973</v>
+        <v>8.684090685275809</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.41291504927122</v>
+        <v>68.67906902570496</v>
       </c>
       <c r="D23" t="n">
-        <v>10.53415244052414</v>
+        <v>10.28240102626477</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.75411352141636</v>
+        <v>68.97438176240139</v>
       </c>
       <c r="D24" t="n">
-        <v>9.846347605866018</v>
+        <v>11.16935351575809</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.95671604753259</v>
+        <v>65.73225821704639</v>
       </c>
       <c r="D25" t="n">
-        <v>10.15931725972407</v>
+        <v>11.47161031916576</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.36557345605975</v>
+        <v>67.62107564678651</v>
       </c>
       <c r="D26" t="n">
-        <v>10.06054023864373</v>
+        <v>11.97679182757024</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.65961036711234</v>
+        <v>65.34498568012168</v>
       </c>
       <c r="D27" t="n">
-        <v>9.859212227002748</v>
+        <v>10.37557690354141</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.96866813649589</v>
+        <v>64.2890890589244</v>
       </c>
       <c r="D28" t="n">
-        <v>10.8588173384698</v>
+        <v>10.29552150628374</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>60.64864473051843</v>
+        <v>62.63119790839139</v>
       </c>
       <c r="D29" t="n">
-        <v>9.731838227630529</v>
+        <v>11.89684752689207</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.00144246957971</v>
+        <v>61.86989252954789</v>
       </c>
       <c r="D30" t="n">
-        <v>10.33457895939746</v>
+        <v>11.19334597463335</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.23137485990824</v>
+        <v>60.07053776920873</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04961205134208</v>
+        <v>11.01234339763097</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.80796145263658</v>
+        <v>59.23185220744875</v>
       </c>
       <c r="D32" t="n">
-        <v>11.95908568216062</v>
+        <v>9.815064320117939</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.80253974462675</v>
+        <v>59.38075911150931</v>
       </c>
       <c r="D33" t="n">
-        <v>11.21438242342907</v>
+        <v>11.42675714417768</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.22373328717439</v>
+        <v>56.76143927026497</v>
       </c>
       <c r="D34" t="n">
-        <v>10.28359012441987</v>
+        <v>10.39396603808607</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.48406997080144</v>
+        <v>56.30145095290241</v>
       </c>
       <c r="D35" t="n">
-        <v>10.66188000387554</v>
+        <v>11.37843830629826</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.378209385718</v>
+        <v>54.8033488550139</v>
       </c>
       <c r="D36" t="n">
-        <v>10.11312519991885</v>
+        <v>11.15644151920925</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.9215021040751</v>
+        <v>53.95168567119266</v>
       </c>
       <c r="D37" t="n">
-        <v>10.93310896220792</v>
+        <v>10.48096615417192</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.06246915024905</v>
+        <v>54.80506512830119</v>
       </c>
       <c r="D38" t="n">
-        <v>11.67862157295028</v>
+        <v>9.917081867683407</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.24400043225715</v>
+        <v>52.00777521196758</v>
       </c>
       <c r="D39" t="n">
-        <v>11.01014229751546</v>
+        <v>11.03957299431699</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.39546246813676</v>
+        <v>50.28343021404285</v>
       </c>
       <c r="D40" t="n">
-        <v>12.20324922228216</v>
+        <v>10.32326929648783</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.42683257475937</v>
+        <v>49.82298076515751</v>
       </c>
       <c r="D41" t="n">
-        <v>11.72353282918803</v>
+        <v>10.71549279992786</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.41093737364323</v>
+        <v>50.39922221817279</v>
       </c>
       <c r="D42" t="n">
-        <v>11.41009674772079</v>
+        <v>11.23436314974657</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.41721535577732</v>
+        <v>50.27610439395649</v>
       </c>
       <c r="D43" t="n">
-        <v>10.7088752193986</v>
+        <v>12.03301336023051</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.83817365253731</v>
+        <v>48.3142925084539</v>
       </c>
       <c r="D44" t="n">
-        <v>11.65618775664864</v>
+        <v>11.3185200360207</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.54971357330233</v>
+        <v>44.26966423787793</v>
       </c>
       <c r="D45" t="n">
-        <v>12.50125962519691</v>
+        <v>10.83110512742818</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.82762679652351</v>
+        <v>47.4260260153819</v>
       </c>
       <c r="D46" t="n">
-        <v>11.98750568901542</v>
+        <v>10.17205405989138</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.95314427653702</v>
+        <v>44.55248408099315</v>
       </c>
       <c r="D47" t="n">
-        <v>10.83981905745463</v>
+        <v>11.45617381203156</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.50177542826437</v>
+        <v>46.00520118404266</v>
       </c>
       <c r="D48" t="n">
-        <v>10.88973876320994</v>
+        <v>11.26432823178902</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.605374143483</v>
+        <v>43.98193850933157</v>
       </c>
       <c r="D49" t="n">
-        <v>9.681373590941604</v>
+        <v>10.80914581464635</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.52963393430433</v>
+        <v>40.05906070982667</v>
       </c>
       <c r="D50" t="n">
-        <v>9.912769697759879</v>
+        <v>11.66624693476748</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.66921142190284</v>
+        <v>41.61013630254561</v>
       </c>
       <c r="D51" t="n">
-        <v>11.57599896574388</v>
+        <v>10.17360378333294</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>41.4723053502365</v>
+        <v>40.27047036753495</v>
       </c>
       <c r="D52" t="n">
-        <v>9.911803176915349</v>
+        <v>10.58718962623914</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>36.92963616519458</v>
+        <v>40.22889629543114</v>
       </c>
       <c r="D53" t="n">
-        <v>10.6584236055858</v>
+        <v>9.304174975641011</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.36999214699293</v>
+        <v>38.0829698469625</v>
       </c>
       <c r="D54" t="n">
-        <v>10.46188350421791</v>
+        <v>10.42265113608983</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.89194314527803</v>
+        <v>37.22572956782901</v>
       </c>
       <c r="D55" t="n">
-        <v>10.38024017841814</v>
+        <v>10.31643479789279</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.13940526084707</v>
+        <v>36.24231537017349</v>
       </c>
       <c r="D56" t="n">
-        <v>10.86147070979473</v>
+        <v>10.00426094849365</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.9128812890595</v>
+        <v>35.69784619800822</v>
       </c>
       <c r="D57" t="n">
-        <v>10.08296881836625</v>
+        <v>10.52959440583432</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.2947874982299</v>
+        <v>34.25986464293101</v>
       </c>
       <c r="D58" t="n">
-        <v>10.29957641828841</v>
+        <v>11.93781432740711</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.01093158159314</v>
+        <v>32.91922458508398</v>
       </c>
       <c r="D59" t="n">
-        <v>10.49368879597357</v>
+        <v>10.10508418149863</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.23749377328365</v>
+        <v>31.9566293741788</v>
       </c>
       <c r="D60" t="n">
-        <v>12.07174815081262</v>
+        <v>9.729895271761844</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.70371813875974</v>
+        <v>30.1685987472664</v>
       </c>
       <c r="D61" t="n">
-        <v>10.62792528569849</v>
+        <v>9.772740167856281</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.9185386984559</v>
+        <v>29.34878841097577</v>
       </c>
       <c r="D62" t="n">
-        <v>9.968042204932493</v>
+        <v>10.9495574106665</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.74541824099305</v>
+        <v>28.83200662415984</v>
       </c>
       <c r="D63" t="n">
-        <v>10.95505674772043</v>
+        <v>11.20295632971877</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.57508822429575</v>
+        <v>27.18794286423148</v>
       </c>
       <c r="D64" t="n">
-        <v>11.84353609775077</v>
+        <v>11.55161945735177</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.23588601222347</v>
+        <v>25.56541795924156</v>
       </c>
       <c r="D65" t="n">
-        <v>10.59794550101911</v>
+        <v>11.42662986433071</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.38904382904306</v>
+        <v>26.82394576186026</v>
       </c>
       <c r="D66" t="n">
-        <v>11.34891210469465</v>
+        <v>10.46668734096119</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.35079548928534</v>
+        <v>23.21729452687235</v>
       </c>
       <c r="D67" t="n">
-        <v>10.78958993140924</v>
+        <v>10.5814968303568</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.77670662798782</v>
+        <v>23.27364832292411</v>
       </c>
       <c r="D68" t="n">
-        <v>11.03378324498402</v>
+        <v>10.20337067948634</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.78135408250672</v>
+        <v>22.33257965308204</v>
       </c>
       <c r="D69" t="n">
-        <v>11.28808233696187</v>
+        <v>11.76169758947434</v>
       </c>
     </row>
   </sheetData>
